--- a/xlsx_file/python_position_info.xlsx
+++ b/xlsx_file/python_position_info.xlsx
@@ -14,7 +14,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="344">
+  <si>
+    <t>乐易网络</t>
+  </si>
+  <si>
+    <t>python开发工程师</t>
+  </si>
+  <si>
+    <t>深圳</t>
+  </si>
+  <si>
+    <t>移动互联网,游戏</t>
+  </si>
+  <si>
+    <t>15k-30k</t>
+  </si>
+  <si>
+    <t>本科</t>
+  </si>
+  <si>
+    <t>1-3年</t>
+  </si>
+  <si>
+    <t>150-500人</t>
+  </si>
+  <si>
+    <t>南山区</t>
+  </si>
+  <si>
+    <t>成长型(A轮)</t>
+  </si>
+  <si>
+    <t>武汉佰钧成技术有限公司</t>
+  </si>
+  <si>
+    <t>移动互联网,分类信息</t>
+  </si>
+  <si>
+    <t>10k-17k</t>
+  </si>
+  <si>
+    <t>大专</t>
+  </si>
+  <si>
+    <t>3-5年</t>
+  </si>
+  <si>
+    <t>2000人以上</t>
+  </si>
+  <si>
+    <t>成熟型(不需要融资)</t>
+  </si>
+  <si>
+    <t>科技园 深圳湾 后海</t>
+  </si>
   <si>
     <t>航仕科技</t>
   </si>
@@ -22,238 +76,526 @@
     <t>Python开发</t>
   </si>
   <si>
-    <t>深圳</t>
-  </si>
-  <si>
     <t>移动互联网,O2O</t>
   </si>
   <si>
     <t>20k-35k</t>
   </si>
   <si>
-    <t>本科</t>
-  </si>
-  <si>
-    <t>3-5年</t>
-  </si>
-  <si>
-    <t>150-500人</t>
-  </si>
-  <si>
-    <t>南山区</t>
-  </si>
-  <si>
     <t>成熟型(C轮)</t>
   </si>
   <si>
+    <t>科技园</t>
+  </si>
+  <si>
+    <t>众禄金融</t>
+  </si>
+  <si>
+    <t>Python开发工程师</t>
+  </si>
+  <si>
+    <t>移动互联网,金融</t>
+  </si>
+  <si>
+    <t>18k-25k</t>
+  </si>
+  <si>
+    <t>罗湖区</t>
+  </si>
+  <si>
+    <t>上市公司</t>
+  </si>
+  <si>
+    <t>笋岗 泥岗 八卦岭</t>
+  </si>
+  <si>
+    <t>笨鸟社交</t>
+  </si>
+  <si>
+    <t>python工程师</t>
+  </si>
+  <si>
+    <t>企业服务</t>
+  </si>
+  <si>
+    <t>不限</t>
+  </si>
+  <si>
+    <t>糗事百科</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>移动互联网</t>
+  </si>
+  <si>
+    <t>50-150人</t>
+  </si>
+  <si>
+    <t>科技园 科技园</t>
+  </si>
+  <si>
+    <t>小闪快送</t>
+  </si>
+  <si>
+    <t>15k-25k</t>
+  </si>
+  <si>
+    <t>15-50人</t>
+  </si>
+  <si>
+    <t>万科物业</t>
+  </si>
+  <si>
+    <t>O2O,生活服务</t>
+  </si>
+  <si>
+    <t>福田区</t>
+  </si>
+  <si>
+    <t>上梅林 莲花北村 笔架山</t>
+  </si>
+  <si>
+    <t>羚羊极速</t>
+  </si>
+  <si>
+    <t>14k-24k</t>
+  </si>
+  <si>
+    <t>科技园 后海 南油</t>
+  </si>
+  <si>
+    <t>商理事</t>
+  </si>
+  <si>
+    <t>Python高级研发工程师</t>
+  </si>
+  <si>
+    <t>前海 南头</t>
+  </si>
+  <si>
+    <t>过家家装修网</t>
+  </si>
+  <si>
+    <t>移动互联网,生活服务</t>
+  </si>
+  <si>
+    <t>东门 火车站 留医部</t>
+  </si>
+  <si>
+    <t>极光</t>
+  </si>
+  <si>
+    <t>10k-20k</t>
+  </si>
+  <si>
+    <t>翻身路 新安 南头</t>
+  </si>
+  <si>
+    <t>花果山</t>
+  </si>
+  <si>
+    <t>电子商务</t>
+  </si>
+  <si>
+    <t>5k-8k</t>
+  </si>
+  <si>
+    <t>成长型(B轮)</t>
+  </si>
+  <si>
+    <t>科技园 大冲 深圳湾</t>
+  </si>
+  <si>
+    <t>达飞金控</t>
+  </si>
+  <si>
+    <t>Python工程师</t>
+  </si>
+  <si>
+    <t>10k-15k</t>
+  </si>
+  <si>
+    <t>海上世界 蛇口 招商大厦</t>
+  </si>
+  <si>
+    <t>新华云帆</t>
+  </si>
+  <si>
+    <t>数据服务</t>
+  </si>
+  <si>
+    <t>12k-20k</t>
+  </si>
+  <si>
+    <t>科技园 深圳湾 南山医院</t>
+  </si>
+  <si>
+    <t>高级Python开发工程师</t>
+  </si>
+  <si>
+    <t>矽递科技</t>
+  </si>
+  <si>
+    <t>移动互联网,硬件</t>
+  </si>
+  <si>
+    <t>成长型(不需要融资)</t>
+  </si>
+  <si>
+    <t>明源云采购</t>
+  </si>
+  <si>
+    <t>开发leader（Python,大数据）</t>
+  </si>
+  <si>
+    <t>移动互联网,企业服务</t>
+  </si>
+  <si>
+    <t>18k-26k</t>
+  </si>
+  <si>
+    <t>5-10年</t>
+  </si>
+  <si>
+    <t>Gridsum 国双</t>
+  </si>
+  <si>
+    <t>高级python开发工程师</t>
+  </si>
+  <si>
+    <t>13k-25k</t>
+  </si>
+  <si>
+    <t>500-2000人</t>
+  </si>
+  <si>
+    <t>岗厦 莲花三村 莲花二村</t>
+  </si>
+  <si>
+    <t>易博天下</t>
+  </si>
+  <si>
+    <t>11k-20k</t>
+  </si>
+  <si>
+    <t>科技园 后海 深圳湾</t>
+  </si>
+  <si>
+    <t>广州碧软</t>
+  </si>
+  <si>
+    <t>企业服务,金融</t>
+  </si>
+  <si>
+    <t>9k-15k</t>
+  </si>
+  <si>
+    <t>中科乐创</t>
+  </si>
+  <si>
+    <t>python/爬虫实习生</t>
+  </si>
+  <si>
+    <t>3k-4k</t>
+  </si>
+  <si>
+    <t>初创型(不需要融资)</t>
+  </si>
+  <si>
+    <t>南油 南山医院 后海</t>
+  </si>
+  <si>
+    <t>正易龙</t>
+  </si>
+  <si>
+    <t>游戏,移动互联网</t>
+  </si>
+  <si>
+    <t>万兴科技股份有限公司</t>
+  </si>
+  <si>
+    <t>Web开发工程师（后端-Python）</t>
+  </si>
+  <si>
+    <t>Shopee</t>
+  </si>
+  <si>
+    <t>科技园 科技园 深圳湾</t>
+  </si>
+  <si>
+    <t>丰巨泰科</t>
+  </si>
+  <si>
+    <t>高级python工程师</t>
+  </si>
+  <si>
+    <t>硬件,移动互联网</t>
+  </si>
+  <si>
+    <t>15k-20k</t>
+  </si>
+  <si>
+    <t>科技园 南山医院 南头</t>
+  </si>
+  <si>
     <t>青柏信息</t>
   </si>
   <si>
     <t>Python研发工程师</t>
   </si>
   <si>
-    <t>移动互联网</t>
-  </si>
-  <si>
-    <t>10k-15k</t>
-  </si>
-  <si>
-    <t>1-3年</t>
-  </si>
-  <si>
-    <t>50-150人</t>
-  </si>
-  <si>
-    <t>成长型(A轮)</t>
-  </si>
-  <si>
-    <t>乐易网络</t>
-  </si>
-  <si>
-    <t>Python</t>
-  </si>
-  <si>
-    <t>移动互联网,游戏</t>
-  </si>
-  <si>
-    <t>15k-30k</t>
-  </si>
-  <si>
-    <t>羚羊极速</t>
-  </si>
-  <si>
-    <t>Python开发工程师</t>
-  </si>
-  <si>
-    <t>14k-24k</t>
-  </si>
-  <si>
-    <t>极光</t>
-  </si>
-  <si>
-    <t>移动互联网,金融</t>
-  </si>
-  <si>
-    <t>10k-20k</t>
-  </si>
-  <si>
-    <t>Gridsum 国双</t>
+    <t>6k-12k</t>
+  </si>
+  <si>
+    <t>金证股份</t>
+  </si>
+  <si>
+    <t>软件开发工程师（Java/C++/Python）</t>
+  </si>
+  <si>
+    <t>金融</t>
+  </si>
+  <si>
+    <t>10k-18k</t>
+  </si>
+  <si>
+    <t>莲花二村 岗厦 莲花三村</t>
+  </si>
+  <si>
+    <t>7k-10k</t>
+  </si>
+  <si>
+    <t>应届毕业生</t>
+  </si>
+  <si>
+    <t>机器学习工程师（Python）-深圳</t>
+  </si>
+  <si>
+    <t>Python开发工程师（高级）</t>
+  </si>
+  <si>
+    <t>30k-50k</t>
+  </si>
+  <si>
+    <t>资深Python开发工程师</t>
+  </si>
+  <si>
+    <t>酷竞NBA</t>
+  </si>
+  <si>
+    <t>Python 工程师</t>
+  </si>
+  <si>
+    <t>文化娱乐,游戏</t>
+  </si>
+  <si>
+    <t>12k-18k</t>
+  </si>
+  <si>
+    <t>少于15人</t>
+  </si>
+  <si>
+    <t>初创型(天使轮)</t>
+  </si>
+  <si>
+    <t>科技园 深圳湾</t>
+  </si>
+  <si>
+    <t>web开发工程师（Python）</t>
+  </si>
+  <si>
+    <t>宝安区</t>
+  </si>
+  <si>
+    <t>石岩</t>
+  </si>
+  <si>
+    <t>家装幸福派</t>
+  </si>
+  <si>
+    <t>电子商务,移动互联网</t>
+  </si>
+  <si>
+    <t>15K-30K</t>
+  </si>
+  <si>
+    <t>百讯科技</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>华大股份</t>
+  </si>
+  <si>
+    <t>医疗健康,其他</t>
+  </si>
+  <si>
+    <t>盐田区</t>
+  </si>
+  <si>
+    <t>成熟型(D轮及以上)</t>
+  </si>
+  <si>
+    <t>晶泰科技</t>
+  </si>
+  <si>
+    <t>高级后端工程师（python、Go）</t>
+  </si>
+  <si>
+    <t>企业服务,医疗健康</t>
+  </si>
+  <si>
+    <t>车公庙 香蜜湖 竹子林</t>
+  </si>
+  <si>
+    <t>瀚德金控</t>
+  </si>
+  <si>
+    <t>Python／PHP 语言开发工程师-YL</t>
+  </si>
+  <si>
+    <t>DJI大疆创新</t>
+  </si>
+  <si>
+    <t>初创型(未融资)</t>
+  </si>
+  <si>
+    <t>腾讯</t>
+  </si>
+  <si>
+    <t>云平台高级开发工程师-Python</t>
+  </si>
+  <si>
+    <t>移动互联网 ,游戏</t>
+  </si>
+  <si>
+    <t>18k-30k</t>
+  </si>
+  <si>
+    <t>科技园 科技园 大冲</t>
+  </si>
+  <si>
+    <t>富士智能</t>
+  </si>
+  <si>
+    <t>华润置地</t>
+  </si>
+  <si>
+    <t>后台开发（Python）</t>
+  </si>
+  <si>
+    <t>南山医院 桂庙路口 南油</t>
   </si>
   <si>
     <t>资深python开发工程师</t>
   </si>
   <si>
-    <t>数据服务</t>
-  </si>
-  <si>
-    <t>500-2000人</t>
-  </si>
-  <si>
-    <t>福田区</t>
-  </si>
-  <si>
-    <t>上市公司</t>
-  </si>
-  <si>
-    <t>Shopee</t>
-  </si>
-  <si>
-    <t>Python开发工程师（高级）</t>
-  </si>
-  <si>
-    <t>电子商务</t>
-  </si>
-  <si>
-    <t>30k-50k</t>
-  </si>
-  <si>
-    <t>2000人以上</t>
-  </si>
-  <si>
-    <t>成熟型(不需要融资)</t>
-  </si>
-  <si>
-    <t>众禄金融</t>
-  </si>
-  <si>
-    <t>Python工程师</t>
-  </si>
-  <si>
-    <t>18k-25k</t>
-  </si>
-  <si>
-    <t>大专</t>
-  </si>
-  <si>
-    <t>罗湖区</t>
-  </si>
-  <si>
-    <t>小闪快送</t>
-  </si>
-  <si>
-    <t>15k-25k</t>
-  </si>
-  <si>
-    <t>15-50人</t>
-  </si>
-  <si>
-    <t>万科物业</t>
-  </si>
-  <si>
-    <t>O2O,生活服务</t>
-  </si>
-  <si>
-    <t>笨鸟社交</t>
-  </si>
-  <si>
-    <t>python工程师</t>
-  </si>
-  <si>
-    <t>企业服务</t>
-  </si>
-  <si>
-    <t>不限</t>
-  </si>
-  <si>
-    <t>花果山</t>
-  </si>
-  <si>
-    <t>5k-8k</t>
-  </si>
-  <si>
-    <t>成长型(B轮)</t>
-  </si>
-  <si>
-    <t>易博天下</t>
-  </si>
-  <si>
-    <t>11k-20k</t>
-  </si>
-  <si>
-    <t>正易龙</t>
-  </si>
-  <si>
-    <t>python开发工程师</t>
-  </si>
-  <si>
-    <t>游戏,移动互联网</t>
-  </si>
-  <si>
-    <t>成长型(不需要融资)</t>
-  </si>
-  <si>
-    <t>中科乐创</t>
-  </si>
-  <si>
-    <t>python/爬虫实习生</t>
-  </si>
-  <si>
-    <t>企业服务,金融</t>
-  </si>
-  <si>
-    <t>3k-4k</t>
-  </si>
-  <si>
-    <t>初创型(不需要融资)</t>
-  </si>
-  <si>
-    <t>7k-10k</t>
-  </si>
-  <si>
-    <t>应届毕业生</t>
-  </si>
-  <si>
-    <t>武汉佰钧成技术有限公司</t>
-  </si>
-  <si>
-    <t>移动互联网,分类信息</t>
-  </si>
-  <si>
-    <t>6k-12k</t>
-  </si>
-  <si>
-    <t>广州碧软</t>
-  </si>
-  <si>
-    <t>9k-15k</t>
-  </si>
-  <si>
-    <t>丰巨泰科</t>
-  </si>
-  <si>
-    <t>高级python工程师</t>
-  </si>
-  <si>
-    <t>硬件,移动互联网</t>
-  </si>
-  <si>
-    <t>15k-20k</t>
-  </si>
-  <si>
-    <t>新华云帆</t>
-  </si>
-  <si>
-    <t>12k-20k</t>
+    <t>科学计算软件开发工程师（ Python、C/C++、Fortran）</t>
+  </si>
+  <si>
+    <t>阿西莫夫</t>
+  </si>
+  <si>
+    <t>Python/ C++开发－服务机器人应用程序</t>
+  </si>
+  <si>
+    <t>科技园 深圳湾 大冲</t>
+  </si>
+  <si>
+    <t>Micro Cube</t>
+  </si>
+  <si>
+    <t>移动互联网,广告营销</t>
+  </si>
+  <si>
+    <t>车公庙 上沙 香蜜湖</t>
+  </si>
+  <si>
+    <t>狗尾草智能科技</t>
+  </si>
+  <si>
+    <t>科技园 南山医院 大冲</t>
+  </si>
+  <si>
+    <t>华通网络</t>
+  </si>
+  <si>
+    <t>移动互联网,电子商务</t>
+  </si>
+  <si>
+    <t>岗厦 莲花二村 皇岗</t>
+  </si>
+  <si>
+    <t>五谷磨房食品集团有限公司</t>
+  </si>
+  <si>
+    <t>ERP软件开发工程师（Python/C#）</t>
+  </si>
+  <si>
+    <t>OPPO</t>
+  </si>
+  <si>
+    <t>Python工程师（数据平台）</t>
+  </si>
+  <si>
+    <t>思奇科技</t>
+  </si>
+  <si>
+    <t>车公庙</t>
+  </si>
+  <si>
+    <t>高级Python开发</t>
+  </si>
+  <si>
+    <t>20k-30k</t>
+  </si>
+  <si>
+    <t>Python服务端开发工程师</t>
+  </si>
+  <si>
+    <t>华策</t>
+  </si>
+  <si>
+    <t>岗厦</t>
+  </si>
+  <si>
+    <t>监控系统开发工程师-Python</t>
+  </si>
+  <si>
+    <t>智想新创科技</t>
+  </si>
+  <si>
+    <t>深圳湾 科技园 后海</t>
+  </si>
+  <si>
+    <t>优融</t>
+  </si>
+  <si>
+    <t>电子商务,O2O</t>
+  </si>
+  <si>
+    <t>Python工程师（运维平台）</t>
+  </si>
+  <si>
+    <t>浪潮企业云深圳研发中心</t>
+  </si>
+  <si>
+    <t>茁壮网络 iPanel</t>
+  </si>
+  <si>
+    <t>网络安全工程师（python开发方向）</t>
+  </si>
+  <si>
+    <t>硬件</t>
+  </si>
+  <si>
+    <t>8k-15k</t>
+  </si>
+  <si>
+    <t>对酒当歌</t>
   </si>
   <si>
     <t>格隆汇</t>
@@ -268,13 +610,151 @@
     <t>1年以下</t>
   </si>
   <si>
-    <t>高级Python开发</t>
-  </si>
-  <si>
-    <t>20k-30k</t>
-  </si>
-  <si>
-    <t>5-10年</t>
+    <t>深圳湾 后海 科技园</t>
+  </si>
+  <si>
+    <t>朗云科技</t>
+  </si>
+  <si>
+    <t>科技园 大冲</t>
+  </si>
+  <si>
+    <t>千丁</t>
+  </si>
+  <si>
+    <t>Python后台开发工程师</t>
+  </si>
+  <si>
+    <t>O2O</t>
+  </si>
+  <si>
+    <t>17k-25k</t>
+  </si>
+  <si>
+    <t>科技园 大冲 科技园</t>
+  </si>
+  <si>
+    <t>汇诚行</t>
+  </si>
+  <si>
+    <t>高级后台开发（Java/C++/Python/ph</t>
+  </si>
+  <si>
+    <t>移动互联网,数据服务</t>
+  </si>
+  <si>
+    <t>20k-40k</t>
+  </si>
+  <si>
+    <t>机器学习开发工程师（熟悉python者优先）</t>
+  </si>
+  <si>
+    <t>瑞丰金融</t>
+  </si>
+  <si>
+    <t>中信银行信用卡中心</t>
+  </si>
+  <si>
+    <t>数据挖掘(Hadoop/Python)</t>
+  </si>
+  <si>
+    <t>金融界网站（互联网证券）</t>
+  </si>
+  <si>
+    <t>Python 开发工程师(大数据方向)</t>
+  </si>
+  <si>
+    <t>10k-16k</t>
+  </si>
+  <si>
+    <t>购物公园 香蜜湖 新洲</t>
+  </si>
+  <si>
+    <t>爱财科技</t>
+  </si>
+  <si>
+    <t>科技园 南山医院 深圳湾</t>
+  </si>
+  <si>
+    <t>千锋互联</t>
+  </si>
+  <si>
+    <t>Python讲师</t>
+  </si>
+  <si>
+    <t>移动互联网,教育</t>
+  </si>
+  <si>
+    <t>西丽</t>
+  </si>
+  <si>
+    <t>看到科技</t>
+  </si>
+  <si>
+    <t>移动互联网,文化娱乐</t>
+  </si>
+  <si>
+    <t>python后台开发工程师(000424)</t>
+  </si>
+  <si>
+    <t>翼果科技</t>
+  </si>
+  <si>
+    <t>大数据,互联网,移动互联网</t>
+  </si>
+  <si>
+    <t>车涯互动</t>
+  </si>
+  <si>
+    <t>悦动</t>
+  </si>
+  <si>
+    <t>python后台开发工程师</t>
+  </si>
+  <si>
+    <t>移动互联网 ,社交网络</t>
+  </si>
+  <si>
+    <t>Python工程师（机器学习）-深圳</t>
+  </si>
+  <si>
+    <t>深圳顶尖传诚</t>
+  </si>
+  <si>
+    <t>10k-13k</t>
+  </si>
+  <si>
+    <t>泰菲尔智能</t>
+  </si>
+  <si>
+    <t>Python后台工程师</t>
+  </si>
+  <si>
+    <t>百见</t>
+  </si>
+  <si>
+    <t>电子商务,旅游</t>
+  </si>
+  <si>
+    <t>凯新益</t>
+  </si>
+  <si>
+    <t>丽海弘金</t>
+  </si>
+  <si>
+    <t>蛇口 南油</t>
+  </si>
+  <si>
+    <t>惠群数据</t>
+  </si>
+  <si>
+    <t>移动互联网,社交网络</t>
+  </si>
+  <si>
+    <t>7k-14k</t>
+  </si>
+  <si>
+    <t>迅博科技</t>
   </si>
   <si>
     <t>SEEHAO123</t>
@@ -283,73 +763,28 @@
     <t>Python 开发工程师</t>
   </si>
   <si>
-    <t>初创型(天使轮)</t>
-  </si>
-  <si>
-    <t>高级python开发工程师</t>
-  </si>
-  <si>
-    <t>13k-25k</t>
-  </si>
-  <si>
-    <t>高级Python开发工程师</t>
-  </si>
-  <si>
-    <t>达飞金控</t>
-  </si>
-  <si>
-    <t>资深Python开发工程师</t>
-  </si>
-  <si>
-    <t>万兴科技股份有限公司</t>
-  </si>
-  <si>
-    <t>web开发工程师（Python）</t>
-  </si>
-  <si>
-    <t>宝安区</t>
-  </si>
-  <si>
-    <t>商理事</t>
-  </si>
-  <si>
-    <t>Python高级研发工程师</t>
-  </si>
-  <si>
-    <t>华大股份</t>
-  </si>
-  <si>
-    <t>医疗健康,其他</t>
-  </si>
-  <si>
-    <t>盐田区</t>
-  </si>
-  <si>
-    <t>成熟型(D轮及以上)</t>
-  </si>
-  <si>
-    <t>过家家装修网</t>
-  </si>
-  <si>
-    <t>移动互联网,生活服务</t>
-  </si>
-  <si>
-    <t>机器学习工程师（Python）-深圳</t>
-  </si>
-  <si>
-    <t>糗事百科</t>
-  </si>
-  <si>
-    <t>明源云采购</t>
-  </si>
-  <si>
-    <t>开发leader（Python,大数据）</t>
-  </si>
-  <si>
-    <t>移动互联网,企业服务</t>
-  </si>
-  <si>
-    <t>18k-26k</t>
+    <t>ViaBTC</t>
+  </si>
+  <si>
+    <t>Python Web 开发</t>
+  </si>
+  <si>
+    <t>前海 南头 科技园</t>
+  </si>
+  <si>
+    <t>纳实大数据</t>
+  </si>
+  <si>
+    <t>数据服务,企业服务</t>
+  </si>
+  <si>
+    <t>木浪云</t>
+  </si>
+  <si>
+    <t>企业服务,数据服务</t>
+  </si>
+  <si>
+    <t>科技园 科技园 南头</t>
   </si>
   <si>
     <t>SheIn</t>
@@ -358,277 +793,115 @@
     <t>python开发</t>
   </si>
   <si>
-    <t>移动互联网,电子商务</t>
-  </si>
-  <si>
-    <t>Micro Cube</t>
-  </si>
-  <si>
-    <t>移动互联网,广告营销</t>
-  </si>
-  <si>
-    <t>百讯科技</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>12k-18k</t>
-  </si>
-  <si>
-    <t>金证股份</t>
-  </si>
-  <si>
-    <t>软件开发工程师（Java/C++/Python）</t>
-  </si>
-  <si>
-    <t>金融</t>
-  </si>
-  <si>
-    <t>10k-18k</t>
-  </si>
-  <si>
-    <t>晶泰科技</t>
-  </si>
-  <si>
-    <t>科学计算软件开发工程师（ Python、C/C++、Fortran）</t>
-  </si>
-  <si>
-    <t>企业服务,医疗健康</t>
-  </si>
-  <si>
-    <t>华润置地</t>
-  </si>
-  <si>
-    <t>后台开发（Python）</t>
-  </si>
-  <si>
-    <t>DJI大疆创新</t>
-  </si>
-  <si>
-    <t>移动互联网,硬件</t>
-  </si>
-  <si>
-    <t>初创型(未融资)</t>
-  </si>
-  <si>
-    <t>百见</t>
-  </si>
-  <si>
-    <t>电子商务,旅游</t>
-  </si>
-  <si>
-    <t>少于15人</t>
-  </si>
-  <si>
-    <t>Web开发工程师（后端-Python）</t>
-  </si>
-  <si>
-    <t>高级后端工程师（python、Go）</t>
-  </si>
-  <si>
-    <t>机器学习开发工程师（熟悉python者优先）</t>
-  </si>
-  <si>
-    <t>瀚德金控</t>
-  </si>
-  <si>
-    <t>Python／PHP 语言开发工程师-YL</t>
-  </si>
-  <si>
-    <t>富士智能</t>
-  </si>
-  <si>
-    <t>阿西莫夫</t>
-  </si>
-  <si>
-    <t>Python/ C++开发－服务机器人应用程序</t>
-  </si>
-  <si>
-    <t>对酒当歌</t>
-  </si>
-  <si>
-    <t>电子商务,O2O</t>
-  </si>
-  <si>
-    <t>千丁</t>
-  </si>
-  <si>
-    <t>python后台开发工程师(000424)</t>
-  </si>
-  <si>
-    <t>O2O</t>
-  </si>
-  <si>
-    <t>腾讯</t>
-  </si>
-  <si>
-    <t>监控系统开发工程师-Python</t>
-  </si>
-  <si>
-    <t>移动互联网 ,游戏</t>
-  </si>
-  <si>
-    <t>18k-30k</t>
-  </si>
-  <si>
-    <t>Python服务端开发工程师</t>
-  </si>
-  <si>
-    <t>华策</t>
-  </si>
-  <si>
-    <t>优融</t>
-  </si>
-  <si>
-    <t>五谷磨房食品集团有限公司</t>
-  </si>
-  <si>
-    <t>ERP软件开发工程师（Python/C#）</t>
-  </si>
-  <si>
-    <t>智想新创科技</t>
-  </si>
-  <si>
-    <t>思奇科技</t>
-  </si>
-  <si>
-    <t>矽递科技</t>
-  </si>
-  <si>
-    <t>云平台高级开发工程师-Python</t>
-  </si>
-  <si>
-    <t>金融界网站（互联网证券）</t>
-  </si>
-  <si>
-    <t>Python 开发工程师(大数据方向)</t>
-  </si>
-  <si>
-    <t>10k-16k</t>
-  </si>
-  <si>
-    <t>爱财科技</t>
-  </si>
-  <si>
-    <t>惠群数据</t>
-  </si>
-  <si>
-    <t>移动互联网,社交网络</t>
-  </si>
-  <si>
-    <t>7k-14k</t>
-  </si>
-  <si>
-    <t>迅博科技</t>
-  </si>
-  <si>
-    <t>移动互联网,文化娱乐</t>
-  </si>
-  <si>
-    <t>酷竞NBA</t>
-  </si>
-  <si>
-    <t>Python 工程师</t>
-  </si>
-  <si>
-    <t>文化娱乐,游戏</t>
+    <t>泰信通</t>
+  </si>
+  <si>
+    <t>移动互联网,信息安全</t>
+  </si>
+  <si>
+    <t>龙华新区</t>
+  </si>
+  <si>
+    <t>民治 潜龙花园 锦绣江南</t>
+  </si>
+  <si>
+    <t>上海胜日</t>
+  </si>
+  <si>
+    <t>西丽 科技园</t>
+  </si>
+  <si>
+    <t>深圳小葵科技有限公司</t>
+  </si>
+  <si>
+    <t>移动互联网,其他</t>
+  </si>
+  <si>
+    <t>西乡</t>
+  </si>
+  <si>
+    <t>杉岩数据</t>
+  </si>
+  <si>
+    <t>12k-21k</t>
+  </si>
+  <si>
+    <t>铺铺旺</t>
+  </si>
+  <si>
+    <t>Python高级工程师</t>
+  </si>
+  <si>
+    <t>8k-16k</t>
+  </si>
+  <si>
+    <t>南油 海王大厦 后海</t>
+  </si>
+  <si>
+    <t>云之道</t>
+  </si>
+  <si>
+    <t>南山医院 科技园 深圳湾</t>
+  </si>
+  <si>
+    <t>百泰集团</t>
+  </si>
+  <si>
+    <t>金融,生活服务</t>
   </si>
   <si>
     <t>极限</t>
   </si>
   <si>
-    <t>移动互联网,信息安全</t>
-  </si>
-  <si>
-    <t>深圳小葵科技有限公司</t>
-  </si>
-  <si>
-    <t>移动互联网,其他</t>
-  </si>
-  <si>
-    <t>狗尾草智能科技</t>
-  </si>
-  <si>
-    <t>凯新益</t>
-  </si>
-  <si>
-    <t>python后台开发工程师</t>
-  </si>
-  <si>
-    <t>家装幸福派</t>
-  </si>
-  <si>
-    <t>电子商务,移动互联网</t>
-  </si>
-  <si>
-    <t>15K-30K</t>
-  </si>
-  <si>
-    <t>千锋互联</t>
-  </si>
-  <si>
-    <t>Python讲师</t>
-  </si>
-  <si>
-    <t>移动互联网,教育</t>
-  </si>
-  <si>
-    <t>泰菲尔智能</t>
-  </si>
-  <si>
-    <t>Python后台工程师</t>
-  </si>
-  <si>
-    <t>移动互联网,数据服务</t>
-  </si>
-  <si>
-    <t>看到科技</t>
-  </si>
-  <si>
-    <t>Python后台开发工程师</t>
-  </si>
-  <si>
-    <t>17k-25k</t>
-  </si>
-  <si>
-    <t>泰信通</t>
-  </si>
-  <si>
-    <t>龙华新区</t>
-  </si>
-  <si>
-    <t>中信银行信用卡中心</t>
-  </si>
-  <si>
-    <t>数据挖掘(Hadoop/Python)</t>
-  </si>
-  <si>
-    <t>OPPO</t>
-  </si>
-  <si>
-    <t>Python工程师（数据平台）</t>
-  </si>
-  <si>
-    <t>华通网络</t>
-  </si>
-  <si>
-    <t>汇诚行</t>
-  </si>
-  <si>
-    <t>高级后台开发（Java/C++/Python/ph</t>
-  </si>
-  <si>
-    <t>20k-40k</t>
-  </si>
-  <si>
-    <t>朗云科技</t>
+    <t>笋岗 宝安南路沿线 园岭</t>
+  </si>
+  <si>
+    <t>移动支付/黄金销售/金融云服务</t>
   </si>
   <si>
     <t>磐石互动</t>
   </si>
   <si>
-    <t>云之道</t>
+    <t>南头</t>
+  </si>
+  <si>
+    <t>金未来信息技术</t>
+  </si>
+  <si>
+    <t>锦绣江南 民治</t>
+  </si>
+  <si>
+    <t>点趣网络</t>
+  </si>
+  <si>
+    <t>Python助理开发工程师</t>
+  </si>
+  <si>
+    <t>ITS</t>
+  </si>
+  <si>
+    <t>数据服务,移动互联网</t>
+  </si>
+  <si>
+    <t>科技园 深圳湾 白石洲</t>
+  </si>
+  <si>
+    <t>Python测试开发工程师</t>
+  </si>
+  <si>
+    <t>后端开发工程师（python/go/node）</t>
+  </si>
+  <si>
+    <t>墨子谷</t>
+  </si>
+  <si>
+    <t>python 开发工程师</t>
+  </si>
+  <si>
+    <t>10K-15K</t>
+  </si>
+  <si>
+    <t>南油</t>
   </si>
   <si>
     <t>永达电子</t>
@@ -637,22 +910,91 @@
     <t>信息安全,移动互联网</t>
   </si>
   <si>
-    <t>8k-15k</t>
-  </si>
-  <si>
-    <t>Python工程师（机器学习）-深圳</t>
-  </si>
-  <si>
-    <t>悦动</t>
-  </si>
-  <si>
-    <t>移动互联网 ,社交网络</t>
-  </si>
-  <si>
-    <t>丽海弘金</t>
-  </si>
-  <si>
-    <t>上海胜日</t>
+    <t>博益科技</t>
+  </si>
+  <si>
+    <t>Python后端工程师</t>
+  </si>
+  <si>
+    <t>华侨城</t>
+  </si>
+  <si>
+    <t>汇游文化</t>
+  </si>
+  <si>
+    <t>Python高级开发工程师</t>
+  </si>
+  <si>
+    <t>游戏</t>
+  </si>
+  <si>
+    <t>前海 南山医院 桂庙路口</t>
+  </si>
+  <si>
+    <t>Python/Django 工程师</t>
+  </si>
+  <si>
+    <t>睿智融科</t>
+  </si>
+  <si>
+    <t>仕达威</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>4K-8K</t>
+  </si>
+  <si>
+    <t>上步</t>
+  </si>
+  <si>
+    <t>Percolata</t>
+  </si>
+  <si>
+    <t>Python后端开发工程师</t>
+  </si>
+  <si>
+    <t>观麦 小农女</t>
+  </si>
+  <si>
+    <t>大冲 科技园</t>
+  </si>
+  <si>
+    <t>行云智能</t>
+  </si>
+  <si>
+    <t>Python/C++开发工程师</t>
+  </si>
+  <si>
+    <t>亚方云数</t>
+  </si>
+  <si>
+    <t>巴伦检测</t>
+  </si>
+  <si>
+    <t>企业服务,硬件</t>
+  </si>
+  <si>
+    <t>8k-12k</t>
+  </si>
+  <si>
+    <t>一面网络</t>
+  </si>
+  <si>
+    <t>磁易购</t>
+  </si>
+  <si>
+    <t>Python Web Developer 工程师</t>
+  </si>
+  <si>
+    <t>魔力百聚</t>
+  </si>
+  <si>
+    <t>python／go软件开发工程师</t>
+  </si>
+  <si>
+    <t>python运营开发工程师</t>
   </si>
   <si>
     <t>易链科技</t>
@@ -661,151 +1003,7 @@
     <t>金融,硬件</t>
   </si>
   <si>
-    <t>Python工程师（运维平台）</t>
-  </si>
-  <si>
-    <t>木浪云</t>
-  </si>
-  <si>
-    <t>企业服务,数据服务</t>
-  </si>
-  <si>
-    <t>铺铺旺</t>
-  </si>
-  <si>
-    <t>Python高级工程师</t>
-  </si>
-  <si>
-    <t>8k-16k</t>
-  </si>
-  <si>
-    <t>车涯互动</t>
-  </si>
-  <si>
-    <t>杉岩数据</t>
-  </si>
-  <si>
-    <t>12k-21k</t>
-  </si>
-  <si>
-    <t>巴伦检测</t>
-  </si>
-  <si>
-    <t>企业服务,硬件</t>
-  </si>
-  <si>
-    <t>8k-12k</t>
-  </si>
-  <si>
-    <t>移动支付/黄金销售/金融云服务</t>
-  </si>
-  <si>
-    <t>Percolata</t>
-  </si>
-  <si>
-    <t>Python后端开发工程师</t>
-  </si>
-  <si>
-    <t>浪潮企业云深圳研发中心</t>
-  </si>
-  <si>
-    <t>亚方云数</t>
-  </si>
-  <si>
-    <t>一面网络</t>
-  </si>
-  <si>
-    <t>ITS</t>
-  </si>
-  <si>
-    <t>数据服务,移动互联网</t>
-  </si>
-  <si>
-    <t>仕达威</t>
-  </si>
-  <si>
-    <t>python</t>
-  </si>
-  <si>
-    <t>4K-8K</t>
-  </si>
-  <si>
-    <t>瑞丰金融</t>
-  </si>
-  <si>
-    <t>SO technology</t>
-  </si>
-  <si>
-    <t>Python实习工程师</t>
-  </si>
-  <si>
-    <t>社交网络</t>
-  </si>
-  <si>
-    <t>3k-5k</t>
-  </si>
-  <si>
-    <t>ViaBTC</t>
-  </si>
-  <si>
-    <t>Python Web 开发</t>
-  </si>
-  <si>
-    <t>茁壮网络 iPanel</t>
-  </si>
-  <si>
-    <t>网络安全工程师（python开发方向）</t>
-  </si>
-  <si>
-    <t>硬件</t>
-  </si>
-  <si>
-    <t>汇游文化</t>
-  </si>
-  <si>
-    <t>Python高级开发工程师</t>
-  </si>
-  <si>
-    <t>游戏</t>
-  </si>
-  <si>
-    <t>点趣网络</t>
-  </si>
-  <si>
-    <t>Python助理开发工程师</t>
-  </si>
-  <si>
-    <t>Python/Django 工程师</t>
-  </si>
-  <si>
-    <t>墨子谷</t>
-  </si>
-  <si>
-    <t>python 开发工程师</t>
-  </si>
-  <si>
-    <t>10K-15K</t>
-  </si>
-  <si>
-    <t>睿智融科</t>
-  </si>
-  <si>
-    <t>Python测试开发工程师</t>
-  </si>
-  <si>
-    <t>翼果科技</t>
-  </si>
-  <si>
-    <t>大数据,互联网,移动互联网</t>
-  </si>
-  <si>
-    <t>纳实大数据</t>
-  </si>
-  <si>
-    <t>数据服务,企业服务</t>
-  </si>
-  <si>
-    <t>金未来信息技术</t>
+    <t>后海</t>
   </si>
   <si>
     <t>红树科技</t>
@@ -814,49 +1012,10 @@
     <t>Go/Python后端攻城狮</t>
   </si>
   <si>
-    <t>百泰集团</t>
-  </si>
-  <si>
-    <t>金融,生活服务</t>
-  </si>
-  <si>
-    <t>深圳顶尖传诚</t>
-  </si>
-  <si>
-    <t>10k-13k</t>
-  </si>
-  <si>
-    <t>魔力百聚</t>
-  </si>
-  <si>
-    <t>python／go软件开发工程师</t>
-  </si>
-  <si>
-    <t>行云智能</t>
-  </si>
-  <si>
-    <t>Python/C++开发工程师</t>
-  </si>
-  <si>
-    <t>博益科技</t>
-  </si>
-  <si>
-    <t>Python后端工程师</t>
-  </si>
-  <si>
-    <t>后端开发工程师（python/go/node）</t>
-  </si>
-  <si>
-    <t>磁易购</t>
-  </si>
-  <si>
-    <t>Python Web Developer 工程师</t>
-  </si>
-  <si>
-    <t>python运营开发工程师</t>
-  </si>
-  <si>
-    <t>观麦 小农女</t>
+    <t>趣凡科技</t>
+  </si>
+  <si>
+    <t>python游戏服务器开发</t>
   </si>
   <si>
     <t>麦克斯韦</t>
@@ -868,12 +1027,6 @@
     <t>15K-25K</t>
   </si>
   <si>
-    <t>趣凡科技</t>
-  </si>
-  <si>
-    <t>python游戏服务器开发</t>
-  </si>
-  <si>
     <t>帕拓逊</t>
   </si>
   <si>
@@ -883,10 +1036,16 @@
     <t>龙岗区</t>
   </si>
   <si>
+    <t>坂田 民治</t>
+  </si>
+  <si>
     <t>房极客</t>
   </si>
   <si>
     <t>python爬虫及数据开发工程师</t>
+  </si>
+  <si>
+    <t>蛇口 招商大厦</t>
   </si>
 </sst>
 </file>
@@ -1222,7 +1381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L130"/>
+  <dimension ref="A1:L129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1261,11 +1420,8 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
       <c r="L1" t="n">
-        <v>2022151</v>
+        <v>3172437</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1273,19 +1429,19 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -1300,33 +1456,33 @@
         <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L2" t="n">
-        <v>2866737</v>
+        <v>3172330</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
@@ -1335,30 +1491,30 @@
         <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="L3" t="n">
-        <v>3062504</v>
+        <v>2022151</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -1367,42 +1523,42 @@
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L4" t="n">
-        <v>3153539</v>
+        <v>3098439</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
         <v>7</v>
@@ -1413,66 +1569,63 @@
       <c r="J5" t="s">
         <v>9</v>
       </c>
-      <c r="K5" t="s">
-        <v>7</v>
-      </c>
       <c r="L5" t="n">
-        <v>907162</v>
+        <v>3163697</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="L6" t="n">
-        <v>3064645</v>
+        <v>2268991</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
         <v>5</v>
@@ -1481,74 +1634,71 @@
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
         <v>8</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="L7" t="n">
-        <v>2666427</v>
+        <v>2456524</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="L8" t="n">
-        <v>3087860</v>
+        <v>2889252</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
         <v>5</v>
@@ -1557,118 +1707,118 @@
         <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s">
         <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="K9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L9" t="n">
-        <v>2456524</v>
+        <v>3153539</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K10" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="L10" t="n">
-        <v>2889252</v>
+        <v>3133926</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="H11" t="s">
         <v>7</v>
       </c>
       <c r="I11" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="K11" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="L11" t="n">
-        <v>3163697</v>
+        <v>3005099</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s">
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H12" t="s">
         <v>7</v>
@@ -1677,36 +1827,36 @@
         <v>8</v>
       </c>
       <c r="J12" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="L12" t="n">
-        <v>89767</v>
+        <v>907162</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H13" t="s">
         <v>7</v>
@@ -1715,112 +1865,112 @@
         <v>8</v>
       </c>
       <c r="J13" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="K13" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="L13" t="n">
-        <v>761479</v>
+        <v>89767</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
         <v>8</v>
       </c>
       <c r="J14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K14" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="L14" t="n">
-        <v>2816173</v>
+        <v>2709500</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" t="s">
         <v>62</v>
       </c>
-      <c r="B15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" t="s">
-        <v>66</v>
-      </c>
       <c r="K15" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="L15" t="n">
-        <v>3013833</v>
+        <v>2946580</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F16" t="s">
         <v>5</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="H16" t="s">
         <v>7</v>
@@ -1829,30 +1979,27 @@
         <v>8</v>
       </c>
       <c r="J16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L16" t="n">
-        <v>2951729</v>
+        <v>2951738</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
@@ -1861,112 +2008,103 @@
         <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J17" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="L17" t="n">
-        <v>3034216</v>
+        <v>2010228</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="G18" t="s">
         <v>6</v>
       </c>
       <c r="H18" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="I18" t="s">
         <v>8</v>
       </c>
       <c r="J18" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="L18" t="n">
-        <v>3017315</v>
+        <v>3130557</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s">
         <v>5</v>
       </c>
       <c r="G19" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
         <v>8</v>
       </c>
       <c r="J19" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="K19" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="L19" t="n">
-        <v>3007421</v>
+        <v>3091844</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F20" t="s">
         <v>5</v>
@@ -1975,226 +2113,220 @@
         <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="I20" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="J20" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="K20" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="L20" t="n">
-        <v>2946580</v>
+        <v>2018558</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="I21" t="s">
         <v>8</v>
       </c>
       <c r="J21" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K21" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="L21" t="n">
-        <v>3171630</v>
+        <v>761479</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
         <v>84</v>
       </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" t="s">
-        <v>86</v>
-      </c>
-      <c r="H22" t="s">
-        <v>37</v>
-      </c>
       <c r="I22" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="J22" t="s">
-        <v>38</v>
-      </c>
-      <c r="K22" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="L22" t="n">
-        <v>2756446</v>
+        <v>3017315</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
       </c>
       <c r="G23" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I23" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="J23" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K23" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="L23" t="n">
-        <v>3089285</v>
+        <v>3013833</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="F24" t="s">
         <v>5</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H24" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="I24" t="s">
         <v>8</v>
       </c>
       <c r="J24" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K24" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="L24" t="n">
-        <v>2614417</v>
+        <v>2816173</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E25" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="I25" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="J25" t="s">
-        <v>32</v>
-      </c>
-      <c r="K25" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="L25" t="n">
-        <v>2018558</v>
+        <v>3161914</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
         <v>5</v>
@@ -2203,71 +2335,74 @@
         <v>6</v>
       </c>
       <c r="H26" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="I26" t="s">
+        <v>8</v>
       </c>
       <c r="J26" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K26" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="L26" t="n">
-        <v>2010228</v>
+        <v>2614417</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="G27" t="s">
         <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="I27" t="s">
         <v>8</v>
       </c>
       <c r="J27" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="K27" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="L27" t="n">
-        <v>2709500</v>
+        <v>3007421</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="F28" t="s">
         <v>5</v>
@@ -2276,36 +2411,36 @@
         <v>6</v>
       </c>
       <c r="H28" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="I28" t="s">
         <v>8</v>
       </c>
       <c r="J28" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="K28" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="L28" t="n">
-        <v>3047302</v>
+        <v>2866737</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
@@ -2314,80 +2449,77 @@
         <v>6</v>
       </c>
       <c r="H29" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="J29" t="s">
-        <v>55</v>
-      </c>
-      <c r="K29" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="L29" t="n">
-        <v>2909295</v>
+        <v>3034216</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="G30" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="J30" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K30" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="L30" t="n">
-        <v>3133926</v>
+        <v>2546295</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="H31" t="s">
         <v>7</v>
@@ -2396,30 +2528,27 @@
         <v>8</v>
       </c>
       <c r="J31" t="s">
-        <v>16</v>
-      </c>
-      <c r="K31" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L31" t="n">
-        <v>2951738</v>
+        <v>2951729</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F32" t="s">
         <v>5</v>
@@ -2428,36 +2557,33 @@
         <v>6</v>
       </c>
       <c r="H32" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="I32" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="J32" t="s">
-        <v>103</v>
-      </c>
-      <c r="K32" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="L32" t="n">
-        <v>3060438</v>
+        <v>2929072</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="F33" t="s">
         <v>5</v>
@@ -2466,36 +2592,36 @@
         <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="J33" t="s">
         <v>16</v>
       </c>
       <c r="K33" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="L33" t="n">
-        <v>3005099</v>
+        <v>2666427</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
         <v>5</v>
@@ -2504,378 +2630,366 @@
         <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="I34" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="J34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L34" t="n">
-        <v>2929072</v>
+        <v>3047302</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="E35" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="F35" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="I35" t="s">
         <v>8</v>
       </c>
       <c r="J35" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="K35" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="L35" t="n">
-        <v>2268991</v>
+        <v>3038682</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="F36" t="s">
         <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="I36" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="J36" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="K36" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="L36" t="n">
-        <v>3091844</v>
+        <v>2909295</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E37" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="F37" t="s">
         <v>5</v>
       </c>
       <c r="G37" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="I37" t="s">
         <v>8</v>
       </c>
       <c r="J37" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="K37" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L37" t="n">
-        <v>2740252</v>
+        <v>2838124</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="E38" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="F38" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="I38" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="J38" t="s">
-        <v>61</v>
-      </c>
-      <c r="K38" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="L38" t="n">
-        <v>3010635</v>
+        <v>3152662</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="E39" t="s">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="G39" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="J39" t="s">
-        <v>66</v>
-      </c>
-      <c r="K39" t="s">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="L39" t="n">
-        <v>3152662</v>
+        <v>3060438</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="E40" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="F40" t="s">
         <v>5</v>
       </c>
       <c r="G40" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I40" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="J40" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="K40" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="L40" t="n">
-        <v>2546295</v>
+        <v>2648807</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="F41" t="s">
         <v>5</v>
       </c>
       <c r="G41" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="I41" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="J41" t="s">
-        <v>16</v>
-      </c>
-      <c r="K41" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="L41" t="n">
-        <v>2648783</v>
+        <v>2803444</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="E42" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s">
         <v>5</v>
       </c>
       <c r="G42" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H42" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
         <v>8</v>
       </c>
       <c r="J42" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="K42" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="L42" t="n">
-        <v>3045428</v>
+        <v>3138212</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="F43" t="s">
         <v>5</v>
       </c>
       <c r="G43" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
         <v>8</v>
       </c>
       <c r="J43" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="K43" t="s">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="L43" t="n">
-        <v>3138212</v>
+        <v>2912119</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E44" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F44" t="s">
         <v>5</v>
@@ -2884,112 +2998,109 @@
         <v>6</v>
       </c>
       <c r="H44" t="s">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="I44" t="s">
         <v>8</v>
       </c>
       <c r="J44" t="s">
-        <v>89</v>
-      </c>
-      <c r="K44" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="L44" t="n">
-        <v>3108234</v>
+        <v>3054668</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="E45" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="G45" t="s">
         <v>6</v>
       </c>
       <c r="H45" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
         <v>8</v>
       </c>
       <c r="J45" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="K45" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="L45" t="n">
-        <v>3161914</v>
+        <v>3045428</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="E46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" t="s">
+        <v>84</v>
+      </c>
+      <c r="I46" t="s">
         <v>45</v>
       </c>
-      <c r="F46" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H46" t="s">
-        <v>46</v>
-      </c>
-      <c r="I46" t="s">
-        <v>31</v>
-      </c>
       <c r="J46" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K46" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="L46" t="n">
-        <v>2648807</v>
+        <v>3064645</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="B47" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="E47" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
@@ -2998,74 +3109,74 @@
         <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I47" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="J47" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="K47" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="L47" t="n">
-        <v>3064586</v>
+        <v>2648783</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="E48" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="F48" t="s">
         <v>5</v>
       </c>
       <c r="G48" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="I48" t="s">
         <v>8</v>
       </c>
       <c r="J48" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="K48" t="s">
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="L48" t="n">
-        <v>2803444</v>
+        <v>1281668</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="E49" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
@@ -3074,77 +3185,77 @@
         <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="I49" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="J49" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="K49" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="L49" t="n">
-        <v>3054668</v>
+        <v>3010635</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="F50" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I50" t="s">
         <v>8</v>
       </c>
       <c r="J50" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="K50" t="s">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="L50" t="n">
-        <v>1281668</v>
+        <v>3070531</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="E51" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="F51" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="G51" t="s">
         <v>14</v>
@@ -3153,185 +3264,176 @@
         <v>7</v>
       </c>
       <c r="I51" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="J51" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="K51" t="s">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="L51" t="n">
-        <v>3088129</v>
+        <v>3010627</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B52" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>147</v>
+        <v>20</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F52" t="s">
         <v>5</v>
       </c>
       <c r="G52" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>30</v>
-      </c>
-      <c r="I52" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J52" t="s">
-        <v>55</v>
-      </c>
-      <c r="K52" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L52" t="n">
-        <v>3098859</v>
+        <v>2339540</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="B53" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="E53" t="s">
-        <v>151</v>
+        <v>4</v>
       </c>
       <c r="F53" t="s">
         <v>5</v>
       </c>
       <c r="G53" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
         <v>8</v>
       </c>
       <c r="J53" t="s">
-        <v>32</v>
-      </c>
-      <c r="K53" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="L53" t="n">
-        <v>3050073</v>
+        <v>1781643</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>175</v>
       </c>
       <c r="B54" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="E54" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F54" t="s">
         <v>5</v>
       </c>
       <c r="G54" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
         <v>7</v>
       </c>
       <c r="I54" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="J54" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="K54" t="s">
-        <v>7</v>
+        <v>176</v>
       </c>
       <c r="L54" t="n">
-        <v>2998105</v>
+        <v>3161752</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>153</v>
+        <v>43</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E55" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="F55" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="J55" t="s">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="K55" t="s">
         <v>46</v>
       </c>
       <c r="L55" t="n">
-        <v>3167148</v>
+        <v>2756446</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="E56" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="F56" t="s">
         <v>5</v>
@@ -3340,223 +3442,223 @@
         <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I56" t="s">
         <v>8</v>
       </c>
       <c r="J56" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="K56" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L56" t="n">
-        <v>1243495</v>
+        <v>2998105</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="B57" t="s">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="C57" t="s">
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E57" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="F57" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
         <v>6</v>
       </c>
       <c r="H57" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="I57" t="s">
+        <v>45</v>
       </c>
       <c r="J57" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="K57" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="L57" t="n">
-        <v>2339540</v>
+        <v>3167148</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>182</v>
       </c>
       <c r="C58" t="s">
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="E58" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="F58" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="G58" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
         <v>8</v>
       </c>
       <c r="J58" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="K58" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="L58" t="n">
-        <v>3162989</v>
+        <v>3050073</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="C59" t="s">
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="F59" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="I59" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="J59" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="K59" t="s">
-        <v>7</v>
+        <v>184</v>
       </c>
       <c r="L59" t="n">
-        <v>3161752</v>
+        <v>3162989</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="B60" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
       </c>
       <c r="G60" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H60" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="I60" t="s">
         <v>8</v>
       </c>
       <c r="J60" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="K60" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="L60" t="n">
-        <v>3130557</v>
+        <v>1243495</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="B61" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="C61" t="s">
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="E61" t="s">
-        <v>151</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
         <v>5</v>
       </c>
       <c r="G61" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="I61" t="s">
         <v>8</v>
       </c>
       <c r="J61" t="s">
-        <v>32</v>
-      </c>
-      <c r="K61" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="L61" t="n">
-        <v>2912119</v>
+        <v>1781652</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="B62" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="C62" t="s">
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="F62" t="s">
         <v>5</v>
@@ -3565,141 +3667,135 @@
         <v>6</v>
       </c>
       <c r="H62" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I62" t="s">
         <v>8</v>
       </c>
       <c r="J62" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="K62" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="L62" t="n">
-        <v>3098859</v>
+        <v>2794050</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="B63" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="C63" t="s">
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="E63" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="F63" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H63" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="I63" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J63" t="s">
-        <v>32</v>
-      </c>
-      <c r="K63" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="L63" t="n">
-        <v>2832070</v>
+        <v>2939278</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="B64" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="C64" t="s">
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="E64" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="F64" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
         <v>6</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="I64" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="J64" t="s">
-        <v>66</v>
-      </c>
-      <c r="K64" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="L64" t="n">
-        <v>3050026</v>
+        <v>3088129</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="C65" t="s">
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="E65" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="F65" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65" t="s">
+        <v>197</v>
+      </c>
+      <c r="H65" t="s">
         <v>42</v>
       </c>
-      <c r="G65" t="s">
-        <v>14</v>
-      </c>
-      <c r="H65" t="s">
-        <v>46</v>
-      </c>
       <c r="I65" t="s">
         <v>8</v>
       </c>
       <c r="J65" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="K65" t="s">
-        <v>46</v>
+        <v>198</v>
       </c>
       <c r="L65" t="n">
-        <v>3012001</v>
+        <v>3171630</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="B66" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
@@ -3708,367 +3804,361 @@
         <v>169</v>
       </c>
       <c r="E66" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
       </c>
       <c r="G66" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="I66" t="s">
         <v>8</v>
       </c>
       <c r="J66" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="K66" t="s">
-        <v>7</v>
+        <v>200</v>
       </c>
       <c r="L66" t="n">
-        <v>3010646</v>
+        <v>3153128</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="B67" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="C67" t="s">
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="E67" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
       <c r="F67" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="G67" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="I67" t="s">
         <v>8</v>
       </c>
       <c r="J67" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="K67" t="s">
-        <v>134</v>
+        <v>205</v>
       </c>
       <c r="L67" t="n">
-        <v>3038682</v>
+        <v>2890594</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="B68" t="s">
-        <v>18</v>
+        <v>207</v>
       </c>
       <c r="C68" t="s">
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="E68" t="s">
-        <v>13</v>
+        <v>209</v>
       </c>
       <c r="F68" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="G68" t="s">
         <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="I68" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J68" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="K68" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="L68" t="n">
-        <v>1747606</v>
+        <v>2940875</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="B69" t="s">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>176</v>
+        <v>69</v>
       </c>
       <c r="E69" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="G69" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="I69" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="J69" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="K69" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="L69" t="n">
-        <v>2962348</v>
+        <v>3064586</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="B70" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="C70" t="s">
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="E70" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F70" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="G70" t="s">
         <v>6</v>
       </c>
       <c r="H70" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I70" t="s">
         <v>8</v>
       </c>
       <c r="J70" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="K70" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L70" t="n">
-        <v>3070531</v>
+        <v>3010622</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="B71" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="C71" t="s">
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="E71" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F71" t="s">
         <v>5</v>
       </c>
       <c r="G71" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
         <v>15</v>
       </c>
-      <c r="I71" t="s">
-        <v>8</v>
-      </c>
       <c r="J71" t="s">
-        <v>131</v>
-      </c>
-      <c r="K71" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="L71" t="n">
-        <v>3152343</v>
+        <v>2142626</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="B72" t="s">
-        <v>59</v>
+        <v>215</v>
       </c>
       <c r="C72" t="s">
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>181</v>
+        <v>26</v>
       </c>
       <c r="E72" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="F72" t="s">
         <v>5</v>
       </c>
       <c r="G72" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="I72" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="J72" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="K72" t="s">
-        <v>7</v>
+        <v>217</v>
       </c>
       <c r="L72" t="n">
-        <v>2838124</v>
+        <v>2832070</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="B73" t="s">
-        <v>184</v>
+        <v>65</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="E73" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="F73" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="G73" t="s">
         <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I73" t="s">
         <v>8</v>
       </c>
       <c r="J73" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="K73" t="s">
-        <v>30</v>
+        <v>219</v>
       </c>
       <c r="L73" t="n">
-        <v>3168075</v>
+        <v>3050026</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="B74" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="C74" t="s">
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="E74" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="F74" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G74" t="s">
         <v>6</v>
       </c>
       <c r="H74" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="I74" t="s">
         <v>8</v>
       </c>
       <c r="J74" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="K74" t="s">
-        <v>7</v>
+        <v>223</v>
       </c>
       <c r="L74" t="n">
-        <v>3156483</v>
+        <v>3168075</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B75" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C75" t="s">
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>169</v>
+        <v>225</v>
       </c>
       <c r="E75" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
       </c>
       <c r="G75" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H75" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="I75" t="s">
         <v>8</v>
       </c>
       <c r="J75" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="K75" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="L75" t="n">
         <v>3112768</v>
@@ -4076,95 +4166,92 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="B76" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="C76" t="s">
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>147</v>
+        <v>203</v>
       </c>
       <c r="E76" t="s">
-        <v>191</v>
+        <v>41</v>
       </c>
       <c r="F76" t="s">
         <v>5</v>
       </c>
       <c r="G76" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="I76" t="s">
         <v>8</v>
       </c>
       <c r="J76" t="s">
-        <v>55</v>
-      </c>
-      <c r="K76" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="L76" t="n">
-        <v>2890594</v>
+        <v>3098859</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" t="s">
+        <v>227</v>
+      </c>
+      <c r="B77" t="s">
+        <v>202</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>228</v>
+      </c>
+      <c r="E77" t="s">
         <v>192</v>
       </c>
-      <c r="B77" t="s">
-        <v>59</v>
-      </c>
-      <c r="C77" t="s">
-        <v>2</v>
-      </c>
-      <c r="D77" t="s">
-        <v>174</v>
-      </c>
-      <c r="E77" t="s">
-        <v>73</v>
-      </c>
       <c r="F77" t="s">
+        <v>5</v>
+      </c>
+      <c r="G77" t="s">
+        <v>6</v>
+      </c>
+      <c r="H77" t="s">
         <v>42</v>
       </c>
-      <c r="G77" t="s">
-        <v>14</v>
-      </c>
-      <c r="H77" t="s">
-        <v>46</v>
-      </c>
       <c r="I77" t="s">
-        <v>193</v>
+        <v>8</v>
       </c>
       <c r="J77" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="K77" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="L77" t="n">
-        <v>3149827</v>
+        <v>2794150</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="B78" t="s">
-        <v>195</v>
+        <v>25</v>
       </c>
       <c r="C78" t="s">
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="E78" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="F78" t="s">
         <v>5</v>
@@ -4173,71 +4260,71 @@
         <v>6</v>
       </c>
       <c r="H78" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="I78" t="s">
+        <v>8</v>
       </c>
       <c r="J78" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="K78" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="L78" t="n">
-        <v>2142626</v>
+        <v>1264447</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="B79" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="C79" t="s">
         <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="E79" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="F79" t="s">
         <v>5</v>
       </c>
       <c r="G79" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I79" t="s">
         <v>8</v>
       </c>
       <c r="J79" t="s">
-        <v>38</v>
-      </c>
-      <c r="K79" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="L79" t="n">
-        <v>1781643</v>
+        <v>3067187</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>22</v>
+        <v>233</v>
       </c>
       <c r="C80" t="s">
         <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="E80" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F80" t="s">
         <v>5</v>
@@ -4246,191 +4333,182 @@
         <v>6</v>
       </c>
       <c r="H80" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="I80" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="J80" t="s">
-        <v>61</v>
-      </c>
-      <c r="K80" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="L80" t="n">
-        <v>3010627</v>
+        <v>2929148</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="B81" t="s">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="C81" t="s">
         <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="E81" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="F81" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
         <v>6</v>
       </c>
       <c r="H81" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="I81" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="J81" t="s">
-        <v>32</v>
-      </c>
-      <c r="K81" t="s">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="L81" t="n">
-        <v>2940875</v>
+        <v>2989669</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" t="s">
-        <v>202</v>
+        <v>236</v>
       </c>
       <c r="B82" t="s">
-        <v>59</v>
+        <v>237</v>
       </c>
       <c r="C82" t="s">
         <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>114</v>
+        <v>208</v>
       </c>
       <c r="E82" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F82" t="s">
         <v>5</v>
       </c>
       <c r="G82" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I82" t="s">
         <v>8</v>
       </c>
       <c r="J82" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K82" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="L82" t="n">
-        <v>3153128</v>
+        <v>3156483</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="B83" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C83" t="s">
         <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="E83" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="G83" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I83" t="s">
         <v>8</v>
       </c>
       <c r="J83" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="K83" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="L83" t="n">
-        <v>2938711</v>
+        <v>3108234</v>
       </c>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="B84" t="s">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="C84" t="s">
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E84" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F84" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="G84" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="H84" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I84" t="s">
         <v>8</v>
       </c>
       <c r="J84" t="s">
-        <v>131</v>
-      </c>
-      <c r="K84" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="L84" t="n">
-        <v>2564480</v>
+        <v>3152343</v>
       </c>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="B85" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C85" t="s">
         <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>206</v>
+        <v>113</v>
       </c>
       <c r="E85" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="F85" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="G85" t="s">
         <v>6</v>
@@ -4442,106 +4520,106 @@
         <v>8</v>
       </c>
       <c r="J85" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="K85" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="L85" t="n">
-        <v>3153145</v>
+        <v>3089424</v>
       </c>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" t="s">
-        <v>27</v>
+        <v>243</v>
       </c>
       <c r="B86" t="s">
-        <v>208</v>
+        <v>25</v>
       </c>
       <c r="C86" t="s">
         <v>2</v>
       </c>
       <c r="D86" t="s">
-        <v>29</v>
+        <v>244</v>
       </c>
       <c r="E86" t="s">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="F86" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H86" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I86" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="J86" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="K86" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="L86" t="n">
-        <v>2929148</v>
+        <v>3012001</v>
       </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="B87" t="s">
-        <v>179</v>
+        <v>25</v>
       </c>
       <c r="C87" t="s">
         <v>2</v>
       </c>
       <c r="D87" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="E87" t="s">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="F87" t="s">
         <v>5</v>
       </c>
       <c r="G87" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H87" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I87" t="s">
         <v>8</v>
       </c>
       <c r="J87" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="K87" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L87" t="n">
-        <v>3067187</v>
+        <v>3010646</v>
       </c>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="B88" t="s">
-        <v>22</v>
+        <v>248</v>
       </c>
       <c r="C88" t="s">
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="E88" t="s">
-        <v>207</v>
+        <v>57</v>
       </c>
       <c r="F88" t="s">
         <v>5</v>
@@ -4550,36 +4628,36 @@
         <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="I88" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="J88" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="K88" t="s">
-        <v>7</v>
+        <v>176</v>
       </c>
       <c r="L88" t="n">
-        <v>3089424</v>
+        <v>3089285</v>
       </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="B89" t="s">
-        <v>59</v>
+        <v>250</v>
       </c>
       <c r="C89" t="s">
         <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="E89" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="F89" t="s">
         <v>5</v>
@@ -4588,1284 +4666,1272 @@
         <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="I89" t="s">
         <v>8</v>
       </c>
       <c r="J89" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="K89" t="s">
-        <v>15</v>
+        <v>251</v>
       </c>
       <c r="L89" t="n">
-        <v>3158360</v>
+        <v>2698777</v>
       </c>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" t="s">
-        <v>213</v>
+        <v>252</v>
       </c>
       <c r="B90" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="C90" t="s">
         <v>2</v>
       </c>
       <c r="D90" t="s">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="E90" t="s">
+        <v>192</v>
+      </c>
+      <c r="F90" t="s">
         <v>13</v>
       </c>
-      <c r="F90" t="s">
-        <v>5</v>
-      </c>
       <c r="G90" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="H90" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I90" t="s">
         <v>8</v>
       </c>
       <c r="J90" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="K90" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="L90" t="n">
-        <v>2619921</v>
+        <v>3148991</v>
       </c>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="B91" t="s">
-        <v>215</v>
+        <v>36</v>
       </c>
       <c r="C91" t="s">
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="E91" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="F91" t="s">
         <v>5</v>
       </c>
       <c r="G91" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="H91" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I91" t="s">
         <v>8</v>
       </c>
       <c r="J91" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="K91" t="s">
-        <v>37</v>
+        <v>256</v>
       </c>
       <c r="L91" t="n">
-        <v>1781652</v>
+        <v>2429819</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="B92" t="s">
-        <v>18</v>
+        <v>258</v>
       </c>
       <c r="C92" t="s">
         <v>2</v>
       </c>
       <c r="D92" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="E92" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
         <v>5</v>
       </c>
       <c r="G92" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="I92" t="s">
         <v>8</v>
       </c>
       <c r="J92" t="s">
-        <v>89</v>
-      </c>
-      <c r="K92" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="L92" t="n">
-        <v>2429819</v>
+        <v>2740252</v>
       </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="B93" t="s">
-        <v>219</v>
+        <v>1</v>
       </c>
       <c r="C93" t="s">
         <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>114</v>
+        <v>260</v>
       </c>
       <c r="E93" t="s">
-        <v>220</v>
+        <v>91</v>
       </c>
       <c r="F93" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G93" t="s">
         <v>6</v>
       </c>
       <c r="H93" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I93" t="s">
-        <v>8</v>
+        <v>261</v>
       </c>
       <c r="J93" t="s">
-        <v>131</v>
+        <v>9</v>
       </c>
       <c r="K93" t="s">
-        <v>37</v>
+        <v>262</v>
       </c>
       <c r="L93" t="n">
-        <v>2443207</v>
+        <v>3149827</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" t="s">
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="B94" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C94" t="s">
         <v>2</v>
       </c>
       <c r="D94" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="E94" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="F94" t="s">
         <v>5</v>
       </c>
       <c r="G94" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H94" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I94" t="s">
         <v>8</v>
       </c>
       <c r="J94" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="K94" t="s">
-        <v>46</v>
+        <v>264</v>
       </c>
       <c r="L94" t="n">
-        <v>1264447</v>
+        <v>3158360</v>
       </c>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" t="s">
-        <v>222</v>
+        <v>265</v>
       </c>
       <c r="B95" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="C95" t="s">
         <v>2</v>
       </c>
       <c r="D95" t="s">
-        <v>217</v>
+        <v>266</v>
       </c>
       <c r="E95" t="s">
-        <v>223</v>
+        <v>57</v>
       </c>
       <c r="F95" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H95" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I95" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="J95" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="K95" t="s">
-        <v>46</v>
+        <v>267</v>
       </c>
       <c r="L95" t="n">
-        <v>686990</v>
+        <v>2962348</v>
       </c>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" t="s">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="B96" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C96" t="s">
         <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="E96" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="F96" t="s">
+        <v>5</v>
+      </c>
+      <c r="G96" t="s">
+        <v>6</v>
+      </c>
+      <c r="H96" t="s">
         <v>42</v>
       </c>
-      <c r="G96" t="s">
-        <v>14</v>
-      </c>
-      <c r="H96" t="s">
-        <v>7</v>
-      </c>
       <c r="I96" t="s">
         <v>8</v>
       </c>
       <c r="J96" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="K96" t="s">
-        <v>7</v>
+        <v>223</v>
       </c>
       <c r="L96" t="n">
-        <v>3069905</v>
+        <v>686990</v>
       </c>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" t="s">
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="B97" t="s">
-        <v>88</v>
+        <v>271</v>
       </c>
       <c r="C97" t="s">
         <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="E97" t="s">
-        <v>26</v>
+        <v>272</v>
       </c>
       <c r="F97" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="G97" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
         <v>15</v>
       </c>
       <c r="I97" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="J97" t="s">
-        <v>61</v>
+        <v>148</v>
       </c>
       <c r="K97" t="s">
-        <v>15</v>
+        <v>273</v>
       </c>
       <c r="L97" t="n">
-        <v>3045027</v>
+        <v>2443207</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
       <c r="B98" t="s">
-        <v>229</v>
+        <v>65</v>
       </c>
       <c r="C98" t="s">
         <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="E98" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="F98" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I98" t="s">
         <v>8</v>
       </c>
       <c r="J98" t="s">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="K98" t="s">
-        <v>46</v>
+        <v>275</v>
       </c>
       <c r="L98" t="n">
-        <v>227494</v>
+        <v>2564480</v>
       </c>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" t="s">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="B99" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C99" t="s">
         <v>2</v>
       </c>
       <c r="D99" t="s">
-        <v>110</v>
+        <v>277</v>
       </c>
       <c r="E99" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="F99" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H99" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="J99" t="s">
-        <v>32</v>
-      </c>
-      <c r="K99" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="L99" t="n">
-        <v>2794050</v>
+        <v>2925575</v>
       </c>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" t="s">
-        <v>231</v>
+        <v>278</v>
       </c>
       <c r="B100" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="C100" t="s">
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>19</v>
+        <v>260</v>
       </c>
       <c r="E100" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="F100" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="H100" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="I100" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="J100" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="K100" t="s">
-        <v>134</v>
+        <v>279</v>
       </c>
       <c r="L100" t="n">
-        <v>3091857</v>
+        <v>1747606</v>
       </c>
     </row>
     <row r="101" spans="1:12">
       <c r="A101" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="B101" t="s">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="C101" t="s">
         <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>188</v>
+        <v>26</v>
       </c>
       <c r="E101" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="F101" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
         <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I101" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="J101" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="K101" t="s">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="L101" t="n">
-        <v>3119217</v>
+        <v>3045027</v>
       </c>
     </row>
     <row r="102" spans="1:12">
       <c r="A102" t="s">
-        <v>233</v>
+        <v>281</v>
       </c>
       <c r="B102" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C102" t="s">
         <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>234</v>
+        <v>98</v>
       </c>
       <c r="E102" t="s">
-        <v>207</v>
+        <v>57</v>
       </c>
       <c r="F102" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="G102" t="s">
         <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="I102" t="s">
         <v>8</v>
       </c>
       <c r="J102" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K102" t="s">
-        <v>46</v>
+        <v>282</v>
       </c>
       <c r="L102" t="n">
-        <v>1989191</v>
+        <v>2938711</v>
       </c>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" t="s">
-        <v>235</v>
+        <v>283</v>
       </c>
       <c r="B103" t="s">
-        <v>236</v>
+        <v>109</v>
       </c>
       <c r="C103" t="s">
         <v>2</v>
       </c>
       <c r="D103" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="E103" t="s">
-        <v>237</v>
+        <v>110</v>
       </c>
       <c r="F103" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="G103" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="H103" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="I103" t="s">
-        <v>31</v>
+        <v>261</v>
       </c>
       <c r="J103" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="K103" t="s">
-        <v>46</v>
+        <v>284</v>
       </c>
       <c r="L103" t="n">
-        <v>3040840</v>
+        <v>1358662</v>
       </c>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" t="s">
-        <v>238</v>
+        <v>285</v>
       </c>
       <c r="B104" t="s">
-        <v>22</v>
+        <v>286</v>
       </c>
       <c r="C104" t="s">
         <v>2</v>
       </c>
       <c r="D104" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="E104" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F104" t="s">
         <v>5</v>
       </c>
       <c r="G104" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H104" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="I104" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="J104" t="s">
-        <v>61</v>
-      </c>
-      <c r="K104" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L104" t="n">
-        <v>3010622</v>
+        <v>2885070</v>
       </c>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" t="s">
-        <v>239</v>
+        <v>287</v>
       </c>
       <c r="B105" t="s">
-        <v>240</v>
+        <v>36</v>
       </c>
       <c r="C105" t="s">
         <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>241</v>
+        <v>288</v>
       </c>
       <c r="E105" t="s">
-        <v>242</v>
+        <v>192</v>
       </c>
       <c r="F105" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G105" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="H105" t="s">
-        <v>134</v>
+        <v>42</v>
+      </c>
+      <c r="I105" t="s">
+        <v>8</v>
       </c>
       <c r="J105" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="K105" t="s">
-        <v>134</v>
+        <v>289</v>
       </c>
       <c r="L105" t="n">
-        <v>1989563</v>
+        <v>1989191</v>
       </c>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" t="s">
-        <v>243</v>
+        <v>173</v>
       </c>
       <c r="B106" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="C106" t="s">
         <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="E106" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="F106" t="s">
         <v>5</v>
       </c>
       <c r="G106" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>46</v>
-      </c>
-      <c r="I106" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J106" t="s">
         <v>16</v>
       </c>
-      <c r="K106" t="s">
-        <v>46</v>
-      </c>
       <c r="L106" t="n">
-        <v>2698777</v>
+        <v>3151426</v>
       </c>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" t="s">
-        <v>245</v>
+        <v>199</v>
       </c>
       <c r="B107" t="s">
-        <v>246</v>
+        <v>291</v>
       </c>
       <c r="C107" t="s">
         <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>247</v>
+        <v>169</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>70</v>
       </c>
       <c r="F107" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="G107" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="H107" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I107" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="J107" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="K107" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="L107" t="n">
-        <v>2939278</v>
+        <v>3040186</v>
       </c>
     </row>
     <row r="108" spans="1:12">
       <c r="A108" t="s">
-        <v>248</v>
+        <v>292</v>
       </c>
       <c r="B108" t="s">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="C108" t="s">
         <v>2</v>
       </c>
       <c r="D108" t="s">
-        <v>250</v>
+        <v>37</v>
       </c>
       <c r="E108" t="s">
-        <v>26</v>
+        <v>294</v>
       </c>
       <c r="F108" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="G108" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H108" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="I108" t="s">
         <v>8</v>
       </c>
       <c r="J108" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="K108" t="s">
-        <v>46</v>
+        <v>295</v>
       </c>
       <c r="L108" t="n">
-        <v>3088913</v>
+        <v>3084753</v>
       </c>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="B109" t="s">
-        <v>252</v>
+        <v>25</v>
       </c>
       <c r="C109" t="s">
         <v>2</v>
       </c>
       <c r="D109" t="s">
-        <v>12</v>
+        <v>297</v>
       </c>
       <c r="E109" t="s">
-        <v>54</v>
+        <v>192</v>
       </c>
       <c r="F109" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I109" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="J109" t="s">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="K109" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L109" t="n">
-        <v>2885070</v>
+        <v>3153145</v>
       </c>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" t="s">
-        <v>218</v>
+        <v>298</v>
       </c>
       <c r="B110" t="s">
-        <v>253</v>
+        <v>299</v>
       </c>
       <c r="C110" t="s">
         <v>2</v>
       </c>
       <c r="D110" t="s">
-        <v>114</v>
+        <v>255</v>
       </c>
       <c r="E110" t="s">
-        <v>220</v>
+        <v>57</v>
       </c>
       <c r="F110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G110" t="s">
+        <v>6</v>
+      </c>
+      <c r="H110" t="s">
         <v>42</v>
       </c>
-      <c r="G110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H110" t="s">
-        <v>37</v>
-      </c>
       <c r="I110" t="s">
         <v>8</v>
       </c>
       <c r="J110" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K110" t="s">
-        <v>37</v>
+        <v>300</v>
       </c>
       <c r="L110" t="n">
-        <v>1888061</v>
+        <v>2432618</v>
       </c>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" t="s">
-        <v>254</v>
+        <v>301</v>
       </c>
       <c r="B111" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="C111" t="s">
         <v>2</v>
       </c>
       <c r="D111" t="s">
-        <v>12</v>
+        <v>303</v>
       </c>
       <c r="E111" t="s">
-        <v>256</v>
+        <v>57</v>
       </c>
       <c r="F111" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="H111" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="I111" t="s">
         <v>8</v>
       </c>
       <c r="J111" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="K111" t="s">
-        <v>134</v>
+        <v>304</v>
       </c>
       <c r="L111" t="n">
-        <v>3084753</v>
+        <v>3088913</v>
       </c>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="B112" t="s">
-        <v>22</v>
+        <v>305</v>
       </c>
       <c r="C112" t="s">
         <v>2</v>
       </c>
       <c r="D112" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="E112" t="s">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="F112" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="H112" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I112" t="s">
         <v>8</v>
       </c>
       <c r="J112" t="s">
-        <v>61</v>
+        <v>148</v>
       </c>
       <c r="K112" t="s">
-        <v>7</v>
+        <v>273</v>
       </c>
       <c r="L112" t="n">
-        <v>2718362</v>
+        <v>1888061</v>
       </c>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" t="s">
-        <v>196</v>
+        <v>306</v>
       </c>
       <c r="B113" t="s">
-        <v>258</v>
+        <v>25</v>
       </c>
       <c r="C113" t="s">
         <v>2</v>
       </c>
       <c r="D113" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="E113" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="F113" t="s">
         <v>5</v>
       </c>
       <c r="G113" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H113" t="s">
-        <v>37</v>
+        <v>7</v>
+      </c>
+      <c r="I113" t="s">
+        <v>8</v>
       </c>
       <c r="J113" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K113" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="L113" t="n">
-        <v>3151426</v>
+        <v>2718362</v>
       </c>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="B114" t="s">
-        <v>190</v>
+        <v>308</v>
       </c>
       <c r="C114" t="s">
         <v>2</v>
       </c>
       <c r="D114" t="s">
-        <v>260</v>
+        <v>169</v>
       </c>
       <c r="E114" t="s">
-        <v>207</v>
+        <v>309</v>
       </c>
       <c r="F114" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="G114" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="H114" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I114" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="J114" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="K114" t="s">
-        <v>46</v>
+        <v>310</v>
       </c>
       <c r="L114" t="n">
-        <v>2794150</v>
+        <v>3040840</v>
       </c>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
       <c r="B115" t="s">
-        <v>22</v>
+        <v>312</v>
       </c>
       <c r="C115" t="s">
         <v>2</v>
       </c>
       <c r="D115" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="E115" t="s">
-        <v>207</v>
+        <v>57</v>
       </c>
       <c r="F115" t="s">
+        <v>5</v>
+      </c>
+      <c r="G115" t="s">
+        <v>34</v>
+      </c>
+      <c r="H115" t="s">
         <v>42</v>
       </c>
-      <c r="G115" t="s">
-        <v>14</v>
-      </c>
-      <c r="H115" t="s">
-        <v>46</v>
-      </c>
       <c r="I115" t="s">
         <v>8</v>
       </c>
       <c r="J115" t="s">
-        <v>131</v>
+        <v>9</v>
       </c>
       <c r="K115" t="s">
-        <v>46</v>
+        <v>273</v>
       </c>
       <c r="L115" t="n">
-        <v>3148991</v>
+        <v>227494</v>
       </c>
     </row>
     <row r="116" spans="1:12">
       <c r="A116" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
+        <v>231</v>
       </c>
       <c r="C116" t="s">
         <v>2</v>
       </c>
       <c r="D116" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E116" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F116" t="s">
         <v>5</v>
       </c>
       <c r="G116" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H116" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="I116" t="s">
-        <v>193</v>
+        <v>8</v>
       </c>
       <c r="J116" t="s">
-        <v>131</v>
+        <v>9</v>
       </c>
       <c r="K116" t="s">
-        <v>134</v>
+        <v>314</v>
       </c>
       <c r="L116" t="n">
-        <v>1358662</v>
+        <v>3018825</v>
       </c>
     </row>
     <row r="117" spans="1:12">
       <c r="A117" t="s">
-        <v>264</v>
+        <v>315</v>
       </c>
       <c r="B117" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="C117" t="s">
         <v>2</v>
       </c>
       <c r="D117" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="E117" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="F117" t="s">
         <v>5</v>
       </c>
       <c r="G117" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H117" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="I117" t="s">
         <v>8</v>
       </c>
       <c r="J117" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="K117" t="s">
-        <v>46</v>
+        <v>282</v>
       </c>
       <c r="L117" t="n">
-        <v>3097274</v>
+        <v>3063773</v>
       </c>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" t="s">
-        <v>266</v>
+        <v>317</v>
       </c>
       <c r="B118" t="s">
-        <v>59</v>
+        <v>248</v>
       </c>
       <c r="C118" t="s">
         <v>2</v>
       </c>
       <c r="D118" t="s">
-        <v>267</v>
+        <v>3</v>
       </c>
       <c r="E118" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="F118" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="G118" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H118" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="I118" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="J118" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="K118" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="L118" t="n">
-        <v>2925575</v>
+        <v>3091857</v>
       </c>
     </row>
     <row r="119" spans="1:12">
       <c r="A119" t="s">
-        <v>268</v>
+        <v>318</v>
       </c>
       <c r="B119" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="C119" t="s">
         <v>2</v>
       </c>
       <c r="D119" t="s">
-        <v>188</v>
+        <v>319</v>
       </c>
       <c r="E119" t="s">
-        <v>269</v>
+        <v>320</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="G119" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H119" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I119" t="s">
         <v>8</v>
       </c>
       <c r="J119" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="K119" t="s">
-        <v>15</v>
+        <v>223</v>
       </c>
       <c r="L119" t="n">
-        <v>2989669</v>
+        <v>3069905</v>
       </c>
     </row>
     <row r="120" spans="1:12">
       <c r="A120" t="s">
-        <v>270</v>
+        <v>321</v>
       </c>
       <c r="B120" t="s">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="C120" t="s">
         <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>12</v>
+        <v>208</v>
       </c>
       <c r="E120" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="F120" t="s">
         <v>5</v>
       </c>
       <c r="G120" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="H120" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I120" t="s">
         <v>8</v>
       </c>
       <c r="J120" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K120" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="L120" t="n">
-        <v>3005568</v>
+        <v>3119217</v>
       </c>
     </row>
     <row r="121" spans="1:12">
       <c r="A121" t="s">
-        <v>272</v>
+        <v>322</v>
       </c>
       <c r="B121" t="s">
-        <v>273</v>
+        <v>323</v>
       </c>
       <c r="C121" t="s">
         <v>2</v>
       </c>
       <c r="D121" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="E121" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="F121" t="s">
         <v>5</v>
       </c>
       <c r="G121" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H121" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I121" t="s">
         <v>8</v>
       </c>
       <c r="J121" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="K121" t="s">
-        <v>134</v>
+        <v>205</v>
       </c>
       <c r="L121" t="n">
-        <v>3063773</v>
+        <v>2729412</v>
       </c>
     </row>
     <row r="122" spans="1:12">
       <c r="A122" t="s">
-        <v>274</v>
+        <v>324</v>
       </c>
       <c r="B122" t="s">
-        <v>275</v>
+        <v>325</v>
       </c>
       <c r="C122" t="s">
         <v>2</v>
       </c>
       <c r="D122" t="s">
-        <v>217</v>
+        <v>37</v>
       </c>
       <c r="E122" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="F122" t="s">
         <v>5</v>
       </c>
       <c r="G122" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="H122" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I122" t="s">
         <v>8</v>
       </c>
       <c r="J122" t="s">
-        <v>89</v>
-      </c>
-      <c r="K122" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="L122" t="n">
-        <v>2432618</v>
+        <v>3005568</v>
       </c>
     </row>
     <row r="123" spans="1:12">
       <c r="A123" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="B123" t="s">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="C123" t="s">
         <v>2</v>
       </c>
       <c r="D123" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="E123" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="F123" t="s">
         <v>5</v>
@@ -5880,68 +5946,68 @@
         <v>8</v>
       </c>
       <c r="J123" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="K123" t="s">
-        <v>15</v>
+        <v>314</v>
       </c>
       <c r="L123" t="n">
-        <v>3040186</v>
+        <v>3015875</v>
       </c>
     </row>
     <row r="124" spans="1:12">
       <c r="A124" t="s">
-        <v>277</v>
+        <v>327</v>
       </c>
       <c r="B124" t="s">
-        <v>278</v>
+        <v>146</v>
       </c>
       <c r="C124" t="s">
         <v>2</v>
       </c>
       <c r="D124" t="s">
-        <v>35</v>
+        <v>328</v>
       </c>
       <c r="E124" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="F124" t="s">
         <v>5</v>
       </c>
       <c r="G124" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H124" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="I124" t="s">
         <v>8</v>
       </c>
       <c r="J124" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="K124" t="s">
-        <v>134</v>
+        <v>329</v>
       </c>
       <c r="L124" t="n">
-        <v>2729412</v>
+        <v>2619921</v>
       </c>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" t="s">
-        <v>148</v>
+        <v>330</v>
       </c>
       <c r="B125" t="s">
-        <v>279</v>
+        <v>331</v>
       </c>
       <c r="C125" t="s">
         <v>2</v>
       </c>
       <c r="D125" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="E125" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="F125" t="s">
         <v>5</v>
@@ -5950,27 +6016,24 @@
         <v>6</v>
       </c>
       <c r="H125" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I125" t="s">
         <v>8</v>
       </c>
       <c r="J125" t="s">
-        <v>32</v>
-      </c>
-      <c r="K125" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="L125" t="n">
-        <v>3015875</v>
+        <v>3097274</v>
       </c>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" t="s">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="B126" t="s">
-        <v>179</v>
+        <v>333</v>
       </c>
       <c r="C126" t="s">
         <v>2</v>
@@ -5979,63 +6042,60 @@
         <v>3</v>
       </c>
       <c r="E126" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="F126" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G126" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H126" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="I126" t="s">
         <v>8</v>
       </c>
       <c r="J126" t="s">
-        <v>16</v>
-      </c>
-      <c r="K126" t="s">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="L126" t="n">
-        <v>3018825</v>
+        <v>2982539</v>
       </c>
     </row>
     <row r="127" spans="1:12">
       <c r="A127" t="s">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="B127" t="s">
-        <v>282</v>
+        <v>335</v>
       </c>
       <c r="C127" t="s">
         <v>2</v>
       </c>
       <c r="D127" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="E127" t="s">
-        <v>283</v>
+        <v>336</v>
       </c>
       <c r="F127" t="s">
         <v>5</v>
       </c>
       <c r="G127" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H127" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I127" t="s">
         <v>8</v>
       </c>
       <c r="J127" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="K127" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="L127" t="n">
         <v>2996035</v>
@@ -6043,115 +6103,77 @@
     </row>
     <row r="128" spans="1:12">
       <c r="A128" t="s">
-        <v>284</v>
+        <v>337</v>
       </c>
       <c r="B128" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="C128" t="s">
         <v>2</v>
       </c>
       <c r="D128" t="s">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="E128" t="s">
-        <v>26</v>
+        <v>192</v>
       </c>
       <c r="F128" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="G128" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H128" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="I128" t="s">
-        <v>8</v>
+        <v>339</v>
       </c>
       <c r="J128" t="s">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="K128" t="s">
-        <v>15</v>
+        <v>340</v>
       </c>
       <c r="L128" t="n">
-        <v>2982539</v>
+        <v>3103288</v>
       </c>
     </row>
     <row r="129" spans="1:12">
       <c r="A129" t="s">
-        <v>286</v>
+        <v>341</v>
       </c>
       <c r="B129" t="s">
-        <v>287</v>
+        <v>342</v>
       </c>
       <c r="C129" t="s">
         <v>2</v>
       </c>
       <c r="D129" t="s">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="E129" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="F129" t="s">
+        <v>5</v>
+      </c>
+      <c r="G129" t="s">
+        <v>6</v>
+      </c>
+      <c r="H129" t="s">
         <v>42</v>
       </c>
-      <c r="G129" t="s">
-        <v>14</v>
-      </c>
-      <c r="H129" t="s">
-        <v>30</v>
-      </c>
       <c r="I129" t="s">
-        <v>288</v>
+        <v>8</v>
       </c>
       <c r="J129" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="K129" t="s">
-        <v>30</v>
+        <v>343</v>
       </c>
       <c r="L129" t="n">
-        <v>3103288</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12">
-      <c r="A130" t="s">
-        <v>289</v>
-      </c>
-      <c r="B130" t="s">
-        <v>290</v>
-      </c>
-      <c r="C130" t="s">
-        <v>2</v>
-      </c>
-      <c r="D130" t="s">
-        <v>3</v>
-      </c>
-      <c r="E130" t="s">
-        <v>207</v>
-      </c>
-      <c r="F130" t="s">
-        <v>5</v>
-      </c>
-      <c r="G130" t="s">
-        <v>14</v>
-      </c>
-      <c r="H130" t="s">
-        <v>46</v>
-      </c>
-      <c r="I130" t="s">
-        <v>8</v>
-      </c>
-      <c r="J130" t="s">
-        <v>89</v>
-      </c>
-      <c r="K130" t="s">
-        <v>46</v>
-      </c>
-      <c r="L130" t="n">
         <v>3080799</v>
       </c>
     </row>
